--- a/ex.xlsx
+++ b/ex.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38881F8-C6FB-48E2-AB69-0FDD8B41967D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7722B2-EC3A-47D2-9151-C7BB885C8371}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>suivisaisielmde</t>
   </si>
   <si>
-    <t>ETAT</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>Trame Flux 929</t>
+  </si>
+  <si>
+    <t>Etat</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +466,7 @@
     <col min="4" max="4" width="36.85546875" customWidth="1"/>
     <col min="5" max="5" width="29.42578125" customWidth="1"/>
     <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
     <col min="9" max="9" width="42.5703125" customWidth="1"/>
     <col min="10" max="10" width="21.140625" customWidth="1"/>
   </cols>
@@ -479,7 +479,7 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -561,10 +561,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -581,22 +581,22 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -610,25 +610,25 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/ex.xlsx
+++ b/ex.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7722B2-EC3A-47D2-9151-C7BB885C8371}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382C9BE6-FF9C-4AB9-BFEE-798D54CA4F35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,22 +83,22 @@
     <t>Trame_LAMIE_Stocks</t>
   </si>
   <si>
-    <t>\RETOUR_ADHESION_LAMIE</t>
-  </si>
-  <si>
-    <t>\RETOUR_ADHESION_CSS\adhesion ITE</t>
-  </si>
-  <si>
-    <t>\RETOUR_ADHESION_CSS\adhesion LMDE</t>
-  </si>
-  <si>
-    <t>\RETOUR_ADHESION_CSS\adhesion MGAS</t>
-  </si>
-  <si>
     <t>Trame Flux 929</t>
   </si>
   <si>
     <t>Etat</t>
+  </si>
+  <si>
+    <t>/RETOUR_ADHESION_LAMIE</t>
+  </si>
+  <si>
+    <t>/RETOUR_ADHESION_CSS/adhesion ITE</t>
+  </si>
+  <si>
+    <t>/RETOUR_ADHESION_CSS/adhesion LMDE</t>
+  </si>
+  <si>
+    <t>/RETOUR_ADHESION_CSS/adhesion MGAS</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
         <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
@@ -581,19 +581,19 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
         <v>21</v>

--- a/ex.xlsx
+++ b/ex.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382C9BE6-FF9C-4AB9-BFEE-798D54CA4F35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34EFBCB-BFB4-47F7-B02D-BC22E2AF9B56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
-    <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
-  </si>
-  <si>
     <t>Rejets et Signalements 929</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>/RETOUR_ADHESION_CSS/adhesion MGAS</t>
+  </si>
+  <si>
+    <t>/dev/prod/Retour_Easytech_</t>
   </si>
 </sst>
 </file>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,162 +473,162 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1">
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/ex.xlsx
+++ b/ex.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34EFBCB-BFB4-47F7-B02D-BC22E2AF9B56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8499E53-3B6E-43F6-B15D-67E16E9B3EE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ex.xlsx
+++ b/ex.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8499E53-3B6E-43F6-B15D-67E16E9B3EE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B2667E-A979-4CAB-A24B-B7D73BD4ABC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
-  <si>
-    <t>Rejets et Signalements 929</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>OK/KO</t>
   </si>
@@ -26,9 +23,6 @@
     <t>trameflux</t>
   </si>
   <si>
-    <t>Feuil1</t>
-  </si>
-  <si>
     <t>saisie OK/KO</t>
   </si>
   <si>
@@ -54,9 +48,6 @@
   </si>
   <si>
     <t>suivisaisielmde</t>
-  </si>
-  <si>
-    <t>Data</t>
   </si>
   <si>
     <t>Typologie de la demande</t>
@@ -454,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,162 +464,162 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
         <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
         <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/ex.xlsx
+++ b/ex.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B2667E-A979-4CAB-A24B-B7D73BD4ABC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1BA1AA-8EDD-4096-A422-E90EDD9B3A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ex.xlsx
+++ b/ex.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1BA1AA-8EDD-4096-A422-E90EDD9B3A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>OK/KO</t>
   </si>
@@ -90,12 +89,15 @@
   </si>
   <si>
     <t>/dev/prod/Retour_Easytech_</t>
+  </si>
+  <si>
+    <t>Saisie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,11 +444,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +557,7 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
